--- a/CarScrapper/cars.xlsx
+++ b/CarScrapper/cars.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="177">
   <si>
     <t>name</t>
   </si>
@@ -37,78 +37,81 @@
     <t>2016 Toyota Corolla LE ECO</t>
   </si>
   <si>
+    <t>2022 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>2015 Toyota Corolla L</t>
+  </si>
+  <si>
+    <t>2020 Toyota Corolla LE</t>
+  </si>
+  <si>
     <t>2024 Toyota Corolla LE</t>
   </si>
   <si>
+    <t>2024 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>2016 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>2021 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>2017 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>2017 Toyota Corolla L</t>
+  </si>
+  <si>
+    <t>2020 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>2013 Toyota Corolla LE</t>
+  </si>
+  <si>
+    <t>2023 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>2020 Toyota Corolla XSE</t>
+  </si>
+  <si>
+    <t>2009 Toyota Corolla LE</t>
+  </si>
+  <si>
     <t>2022 Toyota Corolla LE</t>
   </si>
   <si>
-    <t>2021 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2022 Toyota Corolla SE</t>
-  </si>
-  <si>
-    <t>2016 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2023 Toyota Corolla SE</t>
+    <t>2021 Toyota Corolla SE</t>
+  </si>
+  <si>
+    <t>2016 Toyota Corolla L</t>
+  </si>
+  <si>
+    <t>2017 Toyota Corolla XLE</t>
   </si>
   <si>
     <t>2014 Toyota Corolla LE</t>
   </si>
   <si>
+    <t>2021 Toyota Corolla XLE</t>
+  </si>
+  <si>
+    <t>2021 Toyota Corolla XSE</t>
+  </si>
+  <si>
+    <t>2014 Toyota Corolla S Plus</t>
+  </si>
+  <si>
     <t>2018 Toyota Corolla LE</t>
   </si>
   <si>
-    <t>2020 Toyota Corolla XSE</t>
-  </si>
-  <si>
-    <t>2024 Toyota Corolla SE</t>
-  </si>
-  <si>
-    <t>2020 Toyota Corolla SE</t>
-  </si>
-  <si>
-    <t>2020 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2015 Toyota Corolla L</t>
-  </si>
-  <si>
-    <t>2021 Toyota Corolla XSE</t>
-  </si>
-  <si>
-    <t>2021 Toyota Corolla SE</t>
+    <t>2023 Toyota Corolla LE</t>
   </si>
   <si>
     <t>2022 Toyota Corolla XSE</t>
   </si>
   <si>
-    <t>2013 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2023 Toyota Corolla LE</t>
-  </si>
-  <si>
-    <t>2016 Toyota Corolla L</t>
-  </si>
-  <si>
-    <t>2017 Toyota Corolla L</t>
-  </si>
-  <si>
-    <t>2018 Toyota Corolla SE</t>
-  </si>
-  <si>
-    <t>2014 Toyota Corolla S Plus</t>
-  </si>
-  <si>
-    <t>2021 Toyota Corolla XLE</t>
-  </si>
-  <si>
-    <t>2009 Toyota Corolla LE</t>
-  </si>
-  <si>
     <t>2015 Toyota Corolla LE</t>
   </si>
   <si>
@@ -118,388 +121,373 @@
     <t>2019 Toyota Corolla LE</t>
   </si>
   <si>
-    <t>2019 Toyota Corolla XLE</t>
-  </si>
-  <si>
-    <t>2017 Toyota Corolla LE</t>
+    <t>2017 Toyota Corolla SE</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/2e3f43a0-8912-463d-af05-6d5eac06895b/</t>
   </si>
   <si>
+    <t>https://www.cars.com/vehicledetail/c4ce442e-1c41-4493-b69d-323085cc4b56/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/eda6b452-b01e-4863-a2a0-01d651580dde/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/ef723a0e-daee-48d3-b4a8-b4241ec7b658/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fcc1b5f5-2536-4f7b-880d-bc4a0a27a8c3/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/ad8c9194-582b-4d38-a019-b2b6a6f18d12/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/a30f7140-6a08-413a-9983-7c55d4a66067/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3e160fff-d4f6-4cdd-a90e-39606cca4905/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fa7f5f72-6191-4cb1-b483-6644aae54db6/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fe783d24-c538-43ea-88f4-972e02430238/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/78ebf256-0848-4b01-8af1-6853f27fd3fb/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/be860cf3-d9ae-4d54-84cb-4268753a8eee/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/f4ed8ff0-b8fb-4f05-a01e-1233def19b3e/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/c1eef1d8-6323-4275-9e03-96001ede533f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/49176f8c-efc6-4eb1-8650-fcc022f14c36/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/d110c030-c04b-4cf6-9258-681c3bf793f7/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/37d5d525-37db-4e07-9a2e-2cb4862c45d7/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/4cbbb98b-5a34-41c6-9525-31d8fba0fdef/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/58debc78-1da6-4795-8113-04b61faef753/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fd2d2858-3041-4cf4-9cf4-5d4090d165c5/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/1024875d-3f7c-4968-bf9d-107e94661fb8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/d420c563-94d7-441d-ba52-35ba1c147b5a/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/7cf3432f-1c28-404d-b773-5c11069d886c/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/799515d7-5d16-4354-8c0a-65b7d3feb34e/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/db6da8cd-6987-40c5-be8a-57a6a3d0c2a3/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/515176e7-9247-4d4e-afe9-9be31527146c/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/a4c420a8-2463-42be-a60e-8fbbad476901/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/0090eb5c-4d0d-4d5e-8177-7548c541366d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/e519d4b8-1467-4481-8d91-258f6bd12dd9/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/b2596c77-fee6-47b3-bd32-ccd0077e90b4/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/5f5d289b-ce01-418a-a33e-d6b6b88de9a3/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/c0b19846-5eab-4397-b17f-a888d17f6d9d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/7fff5d92-50bc-49b8-bc65-84b13e51da50/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/33448cd1-123f-41e9-ae11-65fa17c37645/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/a6310dc4-27ee-4187-945d-4274d3a31ae6/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/c88c2ae9-6147-4487-95fe-235a268d48a0/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/f7896369-88ac-44f7-a7e3-b02d1339fd5d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/aeaab920-6e83-468d-ae37-00cb32658fca/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/1e866f6b-5b6f-4551-8def-1c0fcdb8c7d2/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/6cec9cd8-1d34-4e21-8c81-496f942cd3fd/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/2c18e215-c8bf-48de-9dde-a518904b734d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/49797448-ffef-4d16-80b9-b7f7f0bcf116/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/6d1059f3-dd10-49d7-a542-8c31bae59e38/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/f7464a7a-8d0b-472d-a1d1-e035c8ea1466/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/e0d09bed-dece-4be8-b45a-a44205895694/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/80aef74a-7971-4640-92bb-535c0df7ec33/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/74170c9c-b7b4-4516-ade9-4a1ded398916/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/626b114d-2f62-4ab3-98de-d985463e10c2/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/86144b51-fb42-40c4-b76b-dc6c09806c0f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/71b035e4-f541-4d5e-932c-671edc25fd70/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/7461cac6-2779-4bb6-95cb-8014c4606c1f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/42340c3a-2ada-4686-8f9d-bd95a0ff5008/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/be076abe-0882-40db-8a76-7cf5d0b70aa1/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/7dbcef4a-a609-42f7-81b7-f3399812c705/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/0a22338b-a159-472b-a99a-c35e8f8ad463/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/16b719d1-eace-4bf0-9952-1c711a734e18/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/5c04311c-5dc4-47f9-9c2e-b1d7c86836bb/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/bc45f659-274c-431e-a45e-25eaec389a63/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/2f59adcb-1714-4aca-ac36-c7aaa4b1c432/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/9c28e8b7-13a4-4cd8-b904-33465f18a763/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/e0533627-48ea-4915-8693-b2a4d31cd5ef/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/e2804415-c4ab-4231-b11f-3f65a47dcfd8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/bb7e67a0-e6ff-4087-a76f-a5080d72c482/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/250d6a9b-e27d-402a-ac16-ee7def3d9f4e/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/8f3e6913-c21e-42b4-a6dc-fca493440e1a/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fd696fe8-af49-4d6c-8183-bceec13a7de8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/281062a7-c7ac-4be1-a9e7-a69da990e87a/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/10b6ed5b-4026-4bfc-9935-d5de34ed6e9d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/bec13596-67e1-42e9-b2dd-92ecc3f74355/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/1e64d52e-d607-4428-87b7-35d7db5fa416/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/7f0252da-f1ef-48a4-82de-45b5e5965915/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/f3c4ff07-38cf-40e2-8d9a-b007f33a997d/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/eb7d2f9a-6c7e-4880-bfa8-6284d6c47f3c/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/acac46ae-05c9-48ce-860a-944cd002133b/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3baf0c46-4647-4c5f-ae14-ef9bebf67fba/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/28c577b6-2a01-43ea-9e82-2849545e4546/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/29388622-1700-4833-9d1a-29e72e1d4e72/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/4f342b22-5caf-4382-aa77-d3c6185e6354/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/2f3444d0-40db-47f8-9d5a-15affb38ef7f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/4fd7da0a-0cdb-4c2b-8e2e-4107203bc4c5/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/b4c0e343-4f58-493b-b0a6-312556077e4f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/91d6bb5f-1efa-4634-9eef-b6cd7845be97/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/b2756797-0ca9-4af0-a3af-8cc7ccb4d933/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/16dce19f-e413-4849-abee-7fd2305bcef8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/48e50739-72a4-4ed9-9b51-13c012c887d5/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3b1fbcc6-4d9c-4617-9c3b-1ebc74662ae2/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/ba0e619e-c6fc-4c6e-b206-8c16bc5ea59e/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/935fbd50-b5c8-4337-89d8-f0b783514d08/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/c10e7aa9-d11b-4385-a5e4-9d7dd7d302f4/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/f21639de-99da-4b76-a5ca-24a1586e5272/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/bad55e6c-b7a7-495e-a44c-db8020db9db2/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/bfd75640-3929-4898-a2e6-4074c8884522/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/b02d68a0-2e0b-4873-b867-775240fe544f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/ad105c02-735a-4f35-a09d-0a4e6871a2f8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/a1645f10-9b94-4de3-9327-2fff29b647ae/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/d9ceb78a-5e17-4fa3-a696-1a4604a58bb4/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/86f8159f-da57-4582-9581-4f5e4a82f9cc/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/5da819ee-e59a-43ef-99b6-824761b893b5/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/e5ee2d5e-9c47-4ce0-b240-1ad8a6a7378c/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/08cd1b5c-c0de-4027-9953-68db9ae9f78d/</t>
+  </si>
+  <si>
     <t>https://www.cars.com/vehicledetail/bad41720-edd0-4146-8e40-3aa5fd80a92f/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/91d6bb5f-1efa-4634-9eef-b6cd7845be97/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/db6da8cd-6987-40c5-be8a-57a6a3d0c2a3/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/515176e7-9247-4d4e-afe9-9be31527146c/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c4ce442e-1c41-4493-b69d-323085cc4b56/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fa7f5f72-6191-4cb1-b483-6644aae54db6/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/42340c3a-2ada-4686-8f9d-bd95a0ff5008/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c0b19846-5eab-4397-b17f-a888d17f6d9d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/ba0e619e-c6fc-4c6e-b206-8c16bc5ea59e/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/be076abe-0882-40db-8a76-7cf5d0b70aa1/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fd696fe8-af49-4d6c-8183-bceec13a7de8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/a6310dc4-27ee-4187-945d-4274d3a31ae6/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/5c04311c-5dc4-47f9-9c2e-b1d7c86836bb/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/2f59adcb-1714-4aca-ac36-c7aaa4b1c432/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/eb7d2f9a-6c7e-4880-bfa8-6284d6c47f3c/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/3baf0c46-4647-4c5f-ae14-ef9bebf67fba/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/6cec9cd8-1d34-4e21-8c81-496f942cd3fd/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fd2d2858-3041-4cf4-9cf4-5d4090d165c5/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4a110ffc-79a5-4bfe-b925-9a37b4696897/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/2c18e215-c8bf-48de-9dde-a518904b734d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/49797448-ffef-4d16-80b9-b7f7f0bcf116/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/1024875d-3f7c-4968-bf9d-107e94661fb8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/a5368fac-61be-4783-bf31-a7b5bf1793e8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f7464a7a-8d0b-472d-a1d1-e035c8ea1466/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/a4c420a8-2463-42be-a60e-8fbbad476901/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/74170c9c-b7b4-4516-ade9-4a1ded398916/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/80aef74a-7971-4640-92bb-535c0df7ec33/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7461cac6-2779-4bb6-95cb-8014c4606c1f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fcc1b5f5-2536-4f7b-880d-bc4a0a27a8c3/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7410d375-24bc-48df-9411-7edfb0632f5b/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/a30f7140-6a08-413a-9983-7c55d4a66067/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7dbcef4a-a609-42f7-81b7-f3399812c705/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/250d6a9b-e27d-402a-ac16-ee7def3d9f4e/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/0a22338b-a159-472b-a99a-c35e8f8ad463/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/bad55e6c-b7a7-495e-a44c-db8020db9db2/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/a1645f10-9b94-4de3-9327-2fff29b647ae/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/ad105c02-735a-4f35-a09d-0a4e6871a2f8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/86f8159f-da57-4582-9581-4f5e4a82f9cc/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4cbbb98b-5a34-41c6-9525-31d8fba0fdef/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7cf3432f-1c28-404d-b773-5c11069d886c/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/e0d09bed-dece-4be8-b45a-a44205895694/</t>
+    <t>https://www.cars.com/vehicledetail/ddbaf448-e765-46c4-aecf-622501da6785/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/59b63164-54c8-48d8-9e9a-873c8dce070f/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fdbaa486-a853-4a6b-a1c8-05c27a057f13/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/6d75a04e-eecf-4b1b-82f3-c79ccabe6fb8/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/16fa551f-7a0d-4d80-ba87-add67d7f7a3c/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/78273536-d1af-4c35-a4e0-8662ebeca85a/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/4596585a-46e5-4b9a-829f-cffd11985091/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/1be99f78-591b-4ca1-96be-b42b5096cb4a/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/b2756797-0ca9-4af0-a3af-8cc7ccb4d933/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/16dce19f-e413-4849-abee-7fd2305bcef8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/626b114d-2f62-4ab3-98de-d985463e10c2/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/0090eb5c-4d0d-4d5e-8177-7548c541366d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/71b035e4-f541-4d5e-932c-671edc25fd70/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/86144b51-fb42-40c4-b76b-dc6c09806c0f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/48e50739-72a4-4ed9-9b51-13c012c887d5/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b2596c77-fee6-47b3-bd32-ccd0077e90b4/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/5f5d289b-ce01-418a-a33e-d6b6b88de9a3/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/35ac473a-a9a7-4728-bf0b-80b8816c3767/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/3e160fff-d4f6-4cdd-a90e-39606cca4905/</t>
+    <t>https://www.cars.com/vehicledetail/55feaded-ca94-46d9-a08b-3f23af6b423a/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/b2379581-5790-4e35-9c3c-f49f661b22d3/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3cb3b234-abd1-4a52-81d2-843617406cda/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3df42ed1-dd34-4790-a33b-01f051762115/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/fd39ad5b-a73a-408c-99d5-290e1934126f/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/3f32c0e2-c3b3-484a-9b88-cf2e02deccb5/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/e0533627-48ea-4915-8693-b2a4d31cd5ef/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/8f3e6913-c21e-42b4-a6dc-fca493440e1a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/10b6ed5b-4026-4bfc-9935-d5de34ed6e9d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/aeaab920-6e83-468d-ae37-00cb32658fca/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/e5ee2d5e-9c47-4ce0-b240-1ad8a6a7378c/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/e519d4b8-1467-4481-8d91-258f6bd12dd9/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/86345f54-a26d-46c5-914e-30c7135527f4/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fe783d24-c538-43ea-88f4-972e02430238/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7fff5d92-50bc-49b8-bc65-84b13e51da50/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/78ebf256-0848-4b01-8af1-6853f27fd3fb/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/2ea45c0f-fb60-4779-81a3-499bfeb3b41f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/33448cd1-123f-41e9-ae11-65fa17c37645/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/281062a7-c7ac-4be1-a9e7-a69da990e87a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/16b719d1-eace-4bf0-9952-1c711a734e18/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/bec13596-67e1-42e9-b2dd-92ecc3f74355/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/5f8706c0-6dc6-4f57-a6ef-3bc9855d7e71/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f21639de-99da-4b76-a5ca-24a1586e5272/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/d9ceb78a-5e17-4fa3-a696-1a4604a58bb4/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/37d5d525-37db-4e07-9a2e-2cb4862c45d7/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/28c577b6-2a01-43ea-9e82-2849545e4546/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/58debc78-1da6-4795-8113-04b61faef753/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4f342b22-5caf-4382-aa77-d3c6185e6354/</t>
+    <t>https://www.cars.com/vehicledetail/49cc5faa-7317-421d-82dc-7bb2d7ae3b10/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/cc5f4873-dadb-455c-a6d1-23e1acc2bdc4/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/c384b11b-7a67-466e-ac3b-08d0ff03f1e3/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/5156d3da-88c0-4625-9682-64d60086a192/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/2f3444d0-40db-47f8-9d5a-15affb38ef7f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4fd7da0a-0cdb-4c2b-8e2e-4107203bc4c5/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/d420c563-94d7-441d-ba52-35ba1c147b5a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b4c0e343-4f58-493b-b0a6-312556077e4f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/08cd1b5c-c0de-4027-9953-68db9ae9f78d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b98586f3-b1fc-466e-b5aa-905786a467f2/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/49cc5faa-7317-421d-82dc-7bb2d7ae3b10/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/e2804415-c4ab-4231-b11f-3f65a47dcfd8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/bb7e67a0-e6ff-4087-a76f-a5080d72c482/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f7896369-88ac-44f7-a7e3-b02d1339fd5d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/935fbd50-b5c8-4337-89d8-f0b783514d08/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/1e64d52e-d607-4428-87b7-35d7db5fa416/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c10e7aa9-d11b-4385-a5e4-9d7dd7d302f4/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/7f0252da-f1ef-48a4-82de-45b5e5965915/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/bc45f659-274c-431e-a45e-25eaec389a63/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b1362131-7f1a-4922-8c4c-c4cea3c4103a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/9c28e8b7-13a4-4cd8-b904-33465f18a763/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/d61d64dd-c42d-4511-8517-da8065bff0b0/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/2b3c22a8-3d6d-40e5-a30d-a2c0789fb4f0/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b02d68a0-2e0b-4873-b867-775240fe544f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/29388622-1700-4833-9d1a-29e72e1d4e72/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/5da819ee-e59a-43ef-99b6-824761b893b5/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/ddbaf448-e765-46c4-aecf-622501da6785/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/59b63164-54c8-48d8-9e9a-873c8dce070f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fdbaa486-a853-4a6b-a1c8-05c27a057f13/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/6d75a04e-eecf-4b1b-82f3-c79ccabe6fb8/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/16fa551f-7a0d-4d80-ba87-add67d7f7a3c/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/799515d7-5d16-4354-8c0a-65b7d3feb34e/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/6d1059f3-dd10-49d7-a542-8c31bae59e38/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/78273536-d1af-4c35-a4e0-8662ebeca85a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4596585a-46e5-4b9a-829f-cffd11985091/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/b2379581-5790-4e35-9c3c-f49f661b22d3/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/ad8c9194-582b-4d38-a019-b2b6a6f18d12/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/cc5f4873-dadb-455c-a6d1-23e1acc2bdc4/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f4ed8ff0-b8fb-4f05-a01e-1233def19b3e/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c88c2ae9-6147-4487-95fe-235a268d48a0/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c1eef1d8-6323-4275-9e03-96001ede533f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/49176f8c-efc6-4eb1-8650-fcc022f14c36/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c384b11b-7a67-466e-ac3b-08d0ff03f1e3/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f3c4ff07-38cf-40e2-8d9a-b007f33a997d/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/d110c030-c04b-4cf6-9258-681c3bf793f7/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/bfd75640-3929-4898-a2e6-4074c8884522/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/3df42ed1-dd34-4790-a33b-01f051762115/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/fd39ad5b-a73a-408c-99d5-290e1934126f/</t>
-  </si>
-  <si>
     <t>https://www.cars.com/vehicledetail/12a74932-9595-4f2d-aea6-f47d6a22753d/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/a7ca0049-7622-4b0d-8be5-361ef3eddcc9/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/011c2840-70c8-4a03-8814-bdc93ca4263a/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/be860cf3-d9ae-4d54-84cb-4268753a8eee/</t>
+    <t>https://www.cars.com/vehicledetail/a5142c74-8ae5-48d4-9660-249d93ff485b/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/4d1f385f-f3fe-48d9-b86e-c86c071c34de/</t>
@@ -517,10 +505,7 @@
     <t>https://www.cars.com/vehicledetail/ba922612-ef49-438d-b939-c5627a98b5f0/</t>
   </si>
   <si>
-    <t>https://www.cars.com/vehicledetail/dd74a179-cf5f-4522-85d6-b4394db27b8f/</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/617527c8-d68c-4945-a701-c57b17674e32/</t>
+    <t>https://www.cars.com/vehicledetail/4307a84f-8e16-407b-94d2-788291c95377/</t>
   </si>
   <si>
     <t>https://www.cars.com/vehicledetail/c7ad73b8-e926-4c76-92b3-4eda030b03c0/</t>
@@ -529,34 +514,37 @@
     <t>https://www.cars.com/vehicledetail/e08b7460-6bec-40bf-abb7-9037e7b9a1c2/</t>
   </si>
   <si>
+    <t>https://www.cars.com/vehicledetail/b12db05f-e1a1-4b54-b426-3b9600af567e/</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/49f7aca0-7513-44b4-aca1-02778267b25f/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/3fece914-c076-44ad-b565-102e33a0fba1/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/d19e5af8-01b1-4d7c-ba0d-ec5096253859/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/52ceef80-06ae-4860-ab5c-5ef8c5b5d6fa/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/76140ad6-6558-4263-977c-fd5592b10f42/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/1933c366-f59f-40b7-930c-f6473e54a2e4/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/eca9fd9c-ac86-45cf-adc2-1ca9b22a1196/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/a7c9918e-efdd-40e9-b852-ace5e8420e42/?attribution_type=se_rp</t>
+  </si>
+  <si>
+    <t>https://www.cars.com/vehicledetail/29d51907-bf7f-449e-8281-61a97eddb63a/?attribution_type=se_rp</t>
+  </si>
+  <si>
     <t>https://www.cars.com/vehicledetail/c55d8637-511a-4c7c-b08c-ab5ff1ffb1d1/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/4d0322df-5daa-4763-a3e6-2e98bf40fe30/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/ab9ece5f-0e9e-4e60-8186-b6382ca1d2e2/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/2be59a19-ec8a-4a31-a6dd-2b4d7732eae0/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/0cc238d7-4ad8-4363-be11-e914f1046f3a/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/f9f205a1-b9bb-4e5a-8ffa-cc74debdfa71/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/581fe5ee-2d06-44ea-ae4d-7df80d3fd3ed/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/8c974b4f-2580-4414-b543-1524a560f802/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/c99895c4-2896-4656-b19f-4fd8a04fea5a/?attribution_type=se_rp</t>
-  </si>
-  <si>
-    <t>https://www.cars.com/vehicledetail/0435f92b-5b2f-45d2-a36a-65d5f5030ff0/?attribution_type=se_rp</t>
   </si>
 </sst>
 </file>
@@ -927,7 +915,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -981,10 +969,10 @@
         <v>37</v>
       </c>
       <c r="C3">
-        <v>19930</v>
+        <v>20973</v>
       </c>
       <c r="D3">
-        <v>27684</v>
+        <v>23631</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -995,16 +983,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C4">
-        <v>16999</v>
+        <v>22180</v>
       </c>
       <c r="D4">
-        <v>60980</v>
+        <v>31140</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -1021,10 +1009,10 @@
         <v>39</v>
       </c>
       <c r="C5">
-        <v>17999</v>
+        <v>13244</v>
       </c>
       <c r="D5">
-        <v>67126</v>
+        <v>76741</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1041,10 +1029,10 @@
         <v>40</v>
       </c>
       <c r="C6">
-        <v>21295</v>
+        <v>15861</v>
       </c>
       <c r="D6">
-        <v>41382</v>
+        <v>64105</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1061,10 +1049,10 @@
         <v>41</v>
       </c>
       <c r="C7">
-        <v>20973</v>
+        <v>20757</v>
       </c>
       <c r="D7">
-        <v>23631</v>
+        <v>27489</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1081,10 +1069,10 @@
         <v>42</v>
       </c>
       <c r="C8">
-        <v>14500</v>
+        <v>24990</v>
       </c>
       <c r="D8">
-        <v>87849</v>
+        <v>13342</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1095,16 +1083,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C9">
-        <v>23923</v>
+        <v>21990</v>
       </c>
       <c r="D9">
-        <v>9338</v>
+        <v>27461</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1115,16 +1103,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C10">
-        <v>17250</v>
+        <v>14500</v>
       </c>
       <c r="D10">
-        <v>60229</v>
+        <v>87849</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1135,16 +1123,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C11">
-        <v>20900</v>
+        <v>17495</v>
       </c>
       <c r="D11">
-        <v>65236</v>
+        <v>65080</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1155,16 +1143,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C12">
-        <v>19999</v>
+        <v>16995</v>
       </c>
       <c r="D12">
-        <v>31885</v>
+        <v>65589</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1175,16 +1163,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C13">
-        <v>23320</v>
+        <v>14202</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>81522</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1195,16 +1183,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C14">
-        <v>22211</v>
+        <v>21213</v>
       </c>
       <c r="D14">
-        <v>10193</v>
+        <v>24903</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1215,16 +1203,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C15">
-        <v>19777</v>
+        <v>14973</v>
       </c>
       <c r="D15">
-        <v>24522</v>
+        <v>77196</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1235,16 +1223,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C16">
-        <v>14500</v>
+        <v>11988</v>
       </c>
       <c r="D16">
-        <v>36045</v>
+        <v>93585</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1255,16 +1243,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C17">
-        <v>13600</v>
+        <v>19905</v>
       </c>
       <c r="D17">
-        <v>73470</v>
+        <v>60319</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1275,16 +1263,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C18">
-        <v>15723</v>
+        <v>15495</v>
       </c>
       <c r="D18">
-        <v>57128</v>
+        <v>58527</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1295,16 +1283,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C19">
-        <v>22900</v>
+        <v>12997</v>
       </c>
       <c r="D19">
-        <v>9201</v>
+        <v>67081</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1315,16 +1303,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C20">
-        <v>26988</v>
+        <v>17490</v>
       </c>
       <c r="D20">
-        <v>7314</v>
+        <v>51269</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1335,16 +1323,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C21">
-        <v>18297</v>
+        <v>26988</v>
       </c>
       <c r="D21">
-        <v>29673</v>
+        <v>7314</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1355,16 +1343,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C22">
-        <v>21437</v>
+        <v>21123</v>
       </c>
       <c r="D22">
-        <v>12026</v>
+        <v>35653</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1381,10 +1369,10 @@
         <v>57</v>
       </c>
       <c r="C23">
-        <v>17796</v>
+        <v>17989</v>
       </c>
       <c r="D23">
-        <v>64931</v>
+        <v>20281</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1395,16 +1383,16 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C24">
-        <v>21123</v>
+        <v>20273</v>
       </c>
       <c r="D24">
-        <v>35653</v>
+        <v>13446</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1415,16 +1403,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25">
-        <v>25078</v>
+        <v>9599</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>73000</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1435,16 +1423,16 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C26">
-        <v>16767</v>
+        <v>17999</v>
       </c>
       <c r="D26">
-        <v>58989</v>
+        <v>67164</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1455,16 +1443,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C27">
-        <v>22990</v>
+        <v>21295</v>
       </c>
       <c r="D27">
-        <v>36769</v>
+        <v>41382</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1475,7 +1463,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>62</v>
@@ -1484,7 +1472,7 @@
         <v>22990</v>
       </c>
       <c r="D28">
-        <v>10707</v>
+        <v>36769</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1495,16 +1483,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C29">
-        <v>19999</v>
+        <v>17225</v>
       </c>
       <c r="D29">
-        <v>37773</v>
+        <v>63064</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1515,16 +1503,16 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C30">
-        <v>18573</v>
+        <v>22950</v>
       </c>
       <c r="D30">
-        <v>43912</v>
+        <v>11923</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1535,16 +1523,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C31">
-        <v>16072</v>
+        <v>17827</v>
       </c>
       <c r="D31">
-        <v>64105</v>
+        <v>56817</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1555,16 +1543,16 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C32">
-        <v>13244</v>
+        <v>21977</v>
       </c>
       <c r="D32">
-        <v>76741</v>
+        <v>23133</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1575,16 +1563,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C33">
-        <v>24990</v>
+        <v>17250</v>
       </c>
       <c r="D33">
-        <v>13336</v>
+        <v>60229</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1595,16 +1583,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C34">
-        <v>21990</v>
+        <v>18950</v>
       </c>
       <c r="D34">
-        <v>10764</v>
+        <v>60352</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1615,16 +1603,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C35">
-        <v>22977</v>
+        <v>21968</v>
       </c>
       <c r="D35">
-        <v>33582</v>
+        <v>34684</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1635,16 +1623,16 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C36">
-        <v>17818</v>
+        <v>22211</v>
       </c>
       <c r="D36">
-        <v>77434</v>
+        <v>10193</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1655,16 +1643,16 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C37">
-        <v>16995</v>
+        <v>17744</v>
       </c>
       <c r="D37">
-        <v>61617</v>
+        <v>63246</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1675,16 +1663,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C38">
-        <v>23998</v>
+        <v>18359</v>
       </c>
       <c r="D38">
-        <v>17565</v>
+        <v>10784</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1695,16 +1683,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C39">
-        <v>22998</v>
+        <v>12179</v>
       </c>
       <c r="D39">
-        <v>14555</v>
+        <v>95545</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1715,16 +1703,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C40">
-        <v>22497</v>
+        <v>17885</v>
       </c>
       <c r="D40">
-        <v>33350</v>
+        <v>78789</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1735,16 +1723,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C41">
-        <v>12997</v>
+        <v>22750</v>
       </c>
       <c r="D41">
-        <v>67081</v>
+        <v>9201</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -1761,10 +1749,10 @@
         <v>76</v>
       </c>
       <c r="C42">
-        <v>20273</v>
+        <v>21217</v>
       </c>
       <c r="D42">
-        <v>13446</v>
+        <v>12026</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -1775,16 +1763,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C43">
-        <v>16915</v>
+        <v>17325</v>
       </c>
       <c r="D43">
-        <v>55721</v>
+        <v>64931</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -1795,16 +1783,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C44">
-        <v>19000</v>
+        <v>17134</v>
       </c>
       <c r="D44">
-        <v>38500</v>
+        <v>57615</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -1815,16 +1803,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C45">
-        <v>11000</v>
+        <v>17073</v>
       </c>
       <c r="D45">
-        <v>90326</v>
+        <v>58989</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -1835,16 +1823,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C46">
-        <v>19999</v>
+        <v>17221</v>
       </c>
       <c r="D46">
-        <v>46327</v>
+        <v>55721</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -1855,16 +1843,16 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C47">
-        <v>12113</v>
+        <v>19999</v>
       </c>
       <c r="D47">
-        <v>93544</v>
+        <v>37773</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -1875,16 +1863,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C48">
-        <v>17225</v>
+        <v>22990</v>
       </c>
       <c r="D48">
-        <v>63064</v>
+        <v>10707</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -1895,16 +1883,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C49">
-        <v>20991</v>
+        <v>12113</v>
       </c>
       <c r="D49">
-        <v>43040</v>
+        <v>93544</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -1915,7 +1903,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>84</v>
@@ -1935,16 +1923,16 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C51">
-        <v>18799</v>
+        <v>20991</v>
       </c>
       <c r="D51">
-        <v>32308</v>
+        <v>43040</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -1955,16 +1943,16 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C52">
-        <v>17827</v>
+        <v>18573</v>
       </c>
       <c r="D52">
-        <v>56817</v>
+        <v>43912</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -1975,16 +1963,16 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C53">
-        <v>21977</v>
+        <v>23923</v>
       </c>
       <c r="D53">
-        <v>23133</v>
+        <v>9338</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -1995,16 +1983,16 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C54">
-        <v>25217</v>
+        <v>19999</v>
       </c>
       <c r="D54">
-        <v>26724</v>
+        <v>31885</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2024,7 +2012,7 @@
         <v>21990</v>
       </c>
       <c r="D55">
-        <v>27461</v>
+        <v>10764</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2035,16 +2023,16 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C56">
-        <v>21000</v>
+        <v>17707</v>
       </c>
       <c r="D56">
-        <v>23574</v>
+        <v>77434</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2055,16 +2043,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C57">
-        <v>17551</v>
+        <v>19661</v>
       </c>
       <c r="D57">
-        <v>81510</v>
+        <v>52036</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2081,10 +2069,10 @@
         <v>92</v>
       </c>
       <c r="C58">
-        <v>22848</v>
+        <v>19777</v>
       </c>
       <c r="D58">
-        <v>21562</v>
+        <v>24522</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2095,16 +2083,16 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C59">
-        <v>16459</v>
+        <v>20295</v>
       </c>
       <c r="D59">
-        <v>45518</v>
+        <v>8671</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2121,10 +2109,10 @@
         <v>94</v>
       </c>
       <c r="C60">
-        <v>12249</v>
+        <v>14650</v>
       </c>
       <c r="D60">
-        <v>95545</v>
+        <v>36045</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2135,16 +2123,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C61">
-        <v>21450</v>
+        <v>21583</v>
       </c>
       <c r="D61">
-        <v>13334</v>
+        <v>3150</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2155,16 +2143,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C62">
-        <v>22950</v>
+        <v>17551</v>
       </c>
       <c r="D62">
-        <v>11923</v>
+        <v>81510</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2175,16 +2163,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C63">
-        <v>14997</v>
+        <v>21193</v>
       </c>
       <c r="D63">
-        <v>53781</v>
+        <v>14427</v>
       </c>
       <c r="E63">
         <v>0</v>
@@ -2195,16 +2183,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C64">
-        <v>17495</v>
+        <v>23995</v>
       </c>
       <c r="D64">
-        <v>65080</v>
+        <v>39770</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2215,16 +2203,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C65">
-        <v>18950</v>
+        <v>22977</v>
       </c>
       <c r="D65">
-        <v>60352</v>
+        <v>33582</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -2235,16 +2223,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C66">
-        <v>16995</v>
+        <v>22546</v>
       </c>
       <c r="D66">
-        <v>65589</v>
+        <v>21562</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -2255,16 +2243,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C67">
-        <v>17500</v>
+        <v>23320</v>
       </c>
       <c r="D67">
-        <v>64569</v>
+        <v>0</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -2275,16 +2263,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C68">
-        <v>21968</v>
+        <v>15500</v>
       </c>
       <c r="D68">
-        <v>34684</v>
+        <v>43571</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -2295,16 +2283,16 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C69">
-        <v>15500</v>
+        <v>16459</v>
       </c>
       <c r="D69">
-        <v>43571</v>
+        <v>45518</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -2315,16 +2303,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C70">
-        <v>19662</v>
+        <v>19199</v>
       </c>
       <c r="D70">
-        <v>52036</v>
+        <v>55574</v>
       </c>
       <c r="E70">
         <v>0</v>
@@ -2335,16 +2323,16 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C71">
-        <v>19339</v>
+        <v>23995</v>
       </c>
       <c r="D71">
-        <v>55574</v>
+        <v>11021</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -2361,10 +2349,10 @@
         <v>106</v>
       </c>
       <c r="C72">
-        <v>19440</v>
+        <v>22495</v>
       </c>
       <c r="D72">
-        <v>23576</v>
+        <v>25587</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -2375,7 +2363,7 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>107</v>
@@ -2384,7 +2372,7 @@
         <v>17995</v>
       </c>
       <c r="D73">
-        <v>57302</v>
+        <v>63455</v>
       </c>
       <c r="E73">
         <v>0</v>
@@ -2395,16 +2383,16 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C74">
-        <v>17193</v>
+        <v>13600</v>
       </c>
       <c r="D74">
-        <v>57075</v>
+        <v>73470</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -2415,16 +2403,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C75">
-        <v>15995</v>
+        <v>16689</v>
       </c>
       <c r="D75">
-        <v>58527</v>
+        <v>88290</v>
       </c>
       <c r="E75">
         <v>0</v>
@@ -2435,16 +2423,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C76">
-        <v>19595</v>
+        <v>15723</v>
       </c>
       <c r="D76">
-        <v>52862</v>
+        <v>57128</v>
       </c>
       <c r="E76">
         <v>0</v>
@@ -2455,16 +2443,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C77">
-        <v>17490</v>
+        <v>19595</v>
       </c>
       <c r="D77">
-        <v>51269</v>
+        <v>52862</v>
       </c>
       <c r="E77">
         <v>0</v>
@@ -2475,16 +2463,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C78">
-        <v>25570</v>
+        <v>19485</v>
       </c>
       <c r="D78">
-        <v>27283</v>
+        <v>46402</v>
       </c>
       <c r="E78">
         <v>0</v>
@@ -2495,16 +2483,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C79">
-        <v>22541</v>
+        <v>25570</v>
       </c>
       <c r="D79">
-        <v>38473</v>
+        <v>27283</v>
       </c>
       <c r="E79">
         <v>0</v>
@@ -2515,7 +2503,7 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>114</v>
@@ -2535,7 +2523,7 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>115</v>
@@ -2555,16 +2543,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C82">
-        <v>17989</v>
+        <v>19161</v>
       </c>
       <c r="D82">
-        <v>20281</v>
+        <v>32387</v>
       </c>
       <c r="E82">
         <v>0</v>
@@ -2575,16 +2563,16 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C83">
-        <v>19025</v>
+        <v>16999</v>
       </c>
       <c r="D83">
-        <v>32387</v>
+        <v>60980</v>
       </c>
       <c r="E83">
         <v>0</v>
@@ -2595,16 +2583,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C84">
-        <v>20020</v>
+        <v>11000</v>
       </c>
       <c r="D84">
-        <v>26781</v>
+        <v>90326</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -2615,16 +2603,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C85">
-        <v>14352</v>
+        <v>19999</v>
       </c>
       <c r="D85">
-        <v>64437</v>
+        <v>46327</v>
       </c>
       <c r="E85">
         <v>0</v>
@@ -2635,16 +2623,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C86">
-        <v>19399</v>
+        <v>18799</v>
       </c>
       <c r="D86">
-        <v>57575</v>
+        <v>32308</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -2655,16 +2643,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C87">
-        <v>21193</v>
+        <v>21957</v>
       </c>
       <c r="D87">
-        <v>14427</v>
+        <v>9985</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -2675,16 +2663,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C88">
-        <v>23995</v>
+        <v>20900</v>
       </c>
       <c r="D88">
-        <v>39770</v>
+        <v>65236</v>
       </c>
       <c r="E88">
         <v>0</v>
@@ -2695,16 +2683,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C89">
-        <v>18359</v>
+        <v>20995</v>
       </c>
       <c r="D89">
-        <v>10784</v>
+        <v>29257</v>
       </c>
       <c r="E89">
         <v>0</v>
@@ -2715,16 +2703,16 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C90">
-        <v>20995</v>
+        <v>20495</v>
       </c>
       <c r="D90">
-        <v>29257</v>
+        <v>66761</v>
       </c>
       <c r="E90">
         <v>0</v>
@@ -2735,16 +2723,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C91">
-        <v>23995</v>
+        <v>17995</v>
       </c>
       <c r="D91">
-        <v>11021</v>
+        <v>57302</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -2755,16 +2743,16 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C92">
-        <v>20495</v>
+        <v>16995</v>
       </c>
       <c r="D92">
-        <v>66761</v>
+        <v>61617</v>
       </c>
       <c r="E92">
         <v>0</v>
@@ -2781,10 +2769,10 @@
         <v>127</v>
       </c>
       <c r="C93">
-        <v>22495</v>
+        <v>20653</v>
       </c>
       <c r="D93">
-        <v>25587</v>
+        <v>5506</v>
       </c>
       <c r="E93">
         <v>0</v>
@@ -2795,16 +2783,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C94">
-        <v>20295</v>
+        <v>23950</v>
       </c>
       <c r="D94">
-        <v>8671</v>
+        <v>13843</v>
       </c>
       <c r="E94">
         <v>0</v>
@@ -2815,16 +2803,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C95">
-        <v>19495</v>
+        <v>22498</v>
       </c>
       <c r="D95">
-        <v>52271</v>
+        <v>14555</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -2835,16 +2823,16 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C96">
-        <v>22317</v>
+        <v>23498</v>
       </c>
       <c r="D96">
-        <v>3150</v>
+        <v>17565</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -2855,16 +2843,16 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C97">
-        <v>15900</v>
+        <v>16993</v>
       </c>
       <c r="D97">
-        <v>65413</v>
+        <v>57075</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -2875,16 +2863,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C98">
-        <v>15900</v>
+        <v>22497</v>
       </c>
       <c r="D98">
-        <v>68407</v>
+        <v>33350</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -2895,16 +2883,16 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C99">
-        <v>23950</v>
+        <v>24998</v>
       </c>
       <c r="D99">
-        <v>13843</v>
+        <v>33898</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -2915,16 +2903,16 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C100">
-        <v>19795</v>
+        <v>21450</v>
       </c>
       <c r="D100">
-        <v>46402</v>
+        <v>13334</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -2935,16 +2923,16 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C101">
-        <v>24998</v>
+        <v>19875</v>
       </c>
       <c r="D101">
-        <v>33898</v>
+        <v>26781</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -2955,16 +2943,16 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C102">
-        <v>20919</v>
+        <v>19434</v>
       </c>
       <c r="D102">
-        <v>21481</v>
+        <v>27684</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -2975,16 +2963,16 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C103">
-        <v>20940</v>
+        <v>20712</v>
       </c>
       <c r="D103">
-        <v>21267</v>
+        <v>21481</v>
       </c>
       <c r="E103">
         <v>0</v>
@@ -2995,16 +2983,16 @@
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C104">
-        <v>20649</v>
+        <v>20731</v>
       </c>
       <c r="D104">
-        <v>24160</v>
+        <v>21267</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -3015,16 +3003,16 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C105">
-        <v>21492</v>
+        <v>20471</v>
       </c>
       <c r="D105">
-        <v>11437</v>
+        <v>24160</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -3035,16 +3023,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C106">
-        <v>19836</v>
+        <v>20884</v>
       </c>
       <c r="D106">
-        <v>28628</v>
+        <v>11437</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -3055,16 +3043,16 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C107">
-        <v>9599</v>
+        <v>19712</v>
       </c>
       <c r="D107">
-        <v>73000</v>
+        <v>28628</v>
       </c>
       <c r="E107">
         <v>0</v>
@@ -3075,16 +3063,16 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C108">
-        <v>16847</v>
+        <v>13500</v>
       </c>
       <c r="D108">
-        <v>57615</v>
+        <v>81592</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -3095,16 +3083,16 @@
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C109">
-        <v>13500</v>
+        <v>18329</v>
       </c>
       <c r="D109">
-        <v>81592</v>
+        <v>55065</v>
       </c>
       <c r="E109">
         <v>0</v>
@@ -3115,16 +3103,16 @@
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C110">
-        <v>18016</v>
+        <v>18994</v>
       </c>
       <c r="D110">
-        <v>55065</v>
+        <v>38500</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -3135,16 +3123,16 @@
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C111">
-        <v>11990</v>
+        <v>20293</v>
       </c>
       <c r="D111">
-        <v>86027</v>
+        <v>26221</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -3155,16 +3143,16 @@
     </row>
     <row r="112" spans="1:6">
       <c r="A112" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C112">
-        <v>20757</v>
+        <v>11990</v>
       </c>
       <c r="D112">
-        <v>27489</v>
+        <v>86027</v>
       </c>
       <c r="E112">
         <v>0</v>
@@ -3175,16 +3163,16 @@
     </row>
     <row r="113" spans="1:6">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C113">
-        <v>19399</v>
+        <v>20656</v>
       </c>
       <c r="D113">
-        <v>58971</v>
+        <v>20199</v>
       </c>
       <c r="E113">
         <v>0</v>
@@ -3201,10 +3189,10 @@
         <v>148</v>
       </c>
       <c r="C114">
-        <v>21213</v>
+        <v>22491</v>
       </c>
       <c r="D114">
-        <v>24903</v>
+        <v>16565</v>
       </c>
       <c r="E114">
         <v>0</v>
@@ -3215,16 +3203,16 @@
     </row>
     <row r="115" spans="1:6">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C115">
-        <v>17744</v>
+        <v>19498</v>
       </c>
       <c r="D115">
-        <v>63246</v>
+        <v>52074</v>
       </c>
       <c r="E115">
         <v>0</v>
@@ -3235,16 +3223,16 @@
     </row>
     <row r="116" spans="1:6">
       <c r="A116" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C116">
-        <v>15442</v>
+        <v>21000</v>
       </c>
       <c r="D116">
-        <v>77196</v>
+        <v>23574</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -3255,16 +3243,16 @@
     </row>
     <row r="117" spans="1:6">
       <c r="A117" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C117">
-        <v>12414</v>
+        <v>19399</v>
       </c>
       <c r="D117">
-        <v>93585</v>
+        <v>57575</v>
       </c>
       <c r="E117">
         <v>0</v>
@@ -3275,16 +3263,16 @@
     </row>
     <row r="118" spans="1:6">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C118">
-        <v>17995</v>
+        <v>19399</v>
       </c>
       <c r="D118">
-        <v>66456</v>
+        <v>58971</v>
       </c>
       <c r="E118">
         <v>0</v>
@@ -3295,7 +3283,7 @@
     </row>
     <row r="119" spans="1:6">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>153</v>
@@ -3304,7 +3292,7 @@
         <v>17995</v>
       </c>
       <c r="D119">
-        <v>63455</v>
+        <v>66456</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -3315,16 +3303,16 @@
     </row>
     <row r="120" spans="1:6">
       <c r="A120" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C120">
-        <v>19905</v>
+        <v>22541</v>
       </c>
       <c r="D120">
-        <v>60319</v>
+        <v>38473</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -3335,16 +3323,16 @@
     </row>
     <row r="121" spans="1:6">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C121">
-        <v>20653</v>
+        <v>20749</v>
       </c>
       <c r="D121">
-        <v>5506</v>
+        <v>22952</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -3355,16 +3343,16 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C122">
-        <v>22491</v>
+        <v>15498</v>
       </c>
       <c r="D122">
-        <v>16565</v>
+        <v>99321</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -3375,16 +3363,16 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C123">
-        <v>19990</v>
+        <v>7900</v>
       </c>
       <c r="D123">
-        <v>52074</v>
+        <v>97000</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -3395,16 +3383,16 @@
     </row>
     <row r="124" spans="1:6">
       <c r="A124" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C124">
-        <v>21198</v>
+        <v>21747</v>
       </c>
       <c r="D124">
-        <v>22952</v>
+        <v>20536</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -3415,16 +3403,16 @@
     </row>
     <row r="125" spans="1:6">
       <c r="A125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C125">
-        <v>15990</v>
+        <v>16888</v>
       </c>
       <c r="D125">
-        <v>99321</v>
+        <v>87567</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -3435,16 +3423,16 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C126">
-        <v>18297</v>
+        <v>13988</v>
       </c>
       <c r="D126">
-        <v>40939</v>
+        <v>81254</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -3455,16 +3443,16 @@
     </row>
     <row r="127" spans="1:6">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C127">
-        <v>14202</v>
+        <v>14835</v>
       </c>
       <c r="D127">
-        <v>81522</v>
+        <v>51209</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -3475,16 +3463,16 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C128">
-        <v>21747</v>
+        <v>19599</v>
       </c>
       <c r="D128">
-        <v>20536</v>
+        <v>24705</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -3495,16 +3483,16 @@
     </row>
     <row r="129" spans="1:6">
       <c r="A129" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C129">
-        <v>16888</v>
+        <v>16477</v>
       </c>
       <c r="D129">
-        <v>87567</v>
+        <v>70484</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -3515,16 +3503,16 @@
     </row>
     <row r="130" spans="1:6">
       <c r="A130" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C130">
-        <v>13988</v>
+        <v>27061</v>
       </c>
       <c r="D130">
-        <v>81254</v>
+        <v>5857</v>
       </c>
       <c r="E130">
         <v>0</v>
@@ -3535,16 +3523,16 @@
     </row>
     <row r="131" spans="1:6">
       <c r="A131" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C131">
-        <v>14835</v>
+        <v>17825</v>
       </c>
       <c r="D131">
-        <v>51209</v>
+        <v>33040</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -3555,16 +3543,16 @@
     </row>
     <row r="132" spans="1:6">
       <c r="A132" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C132">
-        <v>21500</v>
+        <v>27053</v>
       </c>
       <c r="D132">
-        <v>24705</v>
+        <v>9994</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -3575,16 +3563,16 @@
     </row>
     <row r="133" spans="1:6">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C133">
-        <v>19977</v>
+        <v>24989</v>
       </c>
       <c r="D133">
-        <v>61267</v>
+        <v>15559</v>
       </c>
       <c r="E133">
         <v>0</v>
@@ -3595,16 +3583,16 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C134">
-        <v>23840</v>
+        <v>15900</v>
       </c>
       <c r="D134">
-        <v>6895</v>
+        <v>97892</v>
       </c>
       <c r="E134">
         <v>0</v>
@@ -3615,16 +3603,16 @@
     </row>
     <row r="135" spans="1:6">
       <c r="A135" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C135">
-        <v>27061</v>
+        <v>19800</v>
       </c>
       <c r="D135">
-        <v>5680</v>
+        <v>30582</v>
       </c>
       <c r="E135">
         <v>0</v>
@@ -3635,16 +3623,16 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C136">
-        <v>19895</v>
+        <v>15429</v>
       </c>
       <c r="D136">
-        <v>33040</v>
+        <v>92672</v>
       </c>
       <c r="E136">
         <v>0</v>
@@ -3655,16 +3643,16 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C137">
-        <v>23400</v>
+        <v>20900</v>
       </c>
       <c r="D137">
-        <v>11167</v>
+        <v>7741</v>
       </c>
       <c r="E137">
         <v>0</v>
@@ -3675,16 +3663,16 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C138">
-        <v>23995</v>
+        <v>18950</v>
       </c>
       <c r="D138">
-        <v>49893</v>
+        <v>50896</v>
       </c>
       <c r="E138">
         <v>0</v>
@@ -3695,16 +3683,16 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C139">
-        <v>17760</v>
+        <v>15849</v>
       </c>
       <c r="D139">
-        <v>72452</v>
+        <v>64675</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -3715,16 +3703,16 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C140">
-        <v>20890</v>
+        <v>17995</v>
       </c>
       <c r="D140">
-        <v>48095</v>
+        <v>46346</v>
       </c>
       <c r="E140">
         <v>0</v>
@@ -3735,16 +3723,16 @@
     </row>
     <row r="141" spans="1:6">
       <c r="A141" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C141">
-        <v>22997</v>
+        <v>19151</v>
       </c>
       <c r="D141">
-        <v>15054</v>
+        <v>53983</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -3761,95 +3749,15 @@
         <v>176</v>
       </c>
       <c r="C142">
-        <v>15998</v>
+        <v>23400</v>
       </c>
       <c r="D142">
-        <v>78334</v>
+        <v>11167</v>
       </c>
       <c r="E142">
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" t="s">
-        <v>8</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C143">
-        <v>21998</v>
-      </c>
-      <c r="D143">
-        <v>10762</v>
-      </c>
-      <c r="E143">
-        <v>0</v>
-      </c>
-      <c r="F143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" t="s">
-        <v>19</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C144">
-        <v>13995</v>
-      </c>
-      <c r="D144">
-        <v>87672</v>
-      </c>
-      <c r="E144">
-        <v>0</v>
-      </c>
-      <c r="F144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C145">
-        <v>22500</v>
-      </c>
-      <c r="D145">
-        <v>8336</v>
-      </c>
-      <c r="E145">
-        <v>0</v>
-      </c>
-      <c r="F145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="C146">
-        <v>20756</v>
-      </c>
-      <c r="D146">
-        <v>19877</v>
-      </c>
-      <c r="E146">
-        <v>0</v>
-      </c>
-      <c r="F146">
         <v>0</v>
       </c>
     </row>
@@ -4044,10 +3952,6 @@
     <hyperlink ref="B140" r:id="rId139"/>
     <hyperlink ref="B141" r:id="rId140"/>
     <hyperlink ref="B142" r:id="rId141"/>
-    <hyperlink ref="B143" r:id="rId142"/>
-    <hyperlink ref="B144" r:id="rId143"/>
-    <hyperlink ref="B145" r:id="rId144"/>
-    <hyperlink ref="B146" r:id="rId145"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
